--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_16-44.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_16-44.xlsx
@@ -41,6 +41,12 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>AM GINKO TAB</t>
   </si>
   <si>
@@ -153,9 +159,6 @@
   </si>
   <si>
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>3:0</t>
   </si>
   <si>
     <t>LEZBERG TRIO 20/5/12.5 TAB</t>
@@ -879,11 +882,11 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -891,7 +894,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B6" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -899,17 +902,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -917,7 +920,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -925,17 +928,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -943,7 +946,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -951,17 +954,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>9.5</v>
+        <v>141</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -977,17 +980,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>27</v>
+        <v>9.5</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -995,7 +998,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1003,17 +1006,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>357</v>
+        <v>27</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1021,7 +1024,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1029,13 +1032,13 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>22</v>
+        <v>357</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
@@ -1047,7 +1050,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1055,13 +1058,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -1073,7 +1076,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1081,17 +1084,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>43.329999999999998</v>
+        <v>62</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1099,7 +1102,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1107,17 +1110,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>44</v>
+        <v>43.329999999999998</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1125,7 +1128,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1133,17 +1136,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1165,11 +1168,11 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1191,11 +1194,11 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>12</v>
+        <v>27.5</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1211,17 +1214,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1229,7 +1232,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1237,17 +1240,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1255,7 +1258,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1263,7 +1266,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1273,7 +1276,7 @@
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1281,7 +1284,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1289,17 +1292,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1315,17 +1318,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1333,7 +1336,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1341,17 +1344,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1373,11 +1376,11 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1393,17 +1396,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1411,7 +1414,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1419,17 +1422,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1437,7 +1440,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1445,17 +1448,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1463,7 +1466,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1471,17 +1474,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>14.25</v>
+        <v>177</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1489,7 +1492,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1497,17 +1500,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>78</v>
+        <v>14.25</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1515,7 +1518,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1523,17 +1526,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>27.440000000000001</v>
+        <v>78</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1541,7 +1544,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1549,17 +1552,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>57</v>
+        <v>27.440000000000001</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1575,17 +1578,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1601,17 +1604,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1627,17 +1630,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1653,17 +1656,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1679,17 +1682,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1705,7 +1708,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -1715,7 +1718,7 @@
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1723,7 +1726,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1731,17 +1734,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>160.05000000000001</v>
+        <v>27</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1757,17 +1760,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>8</v>
+        <v>160.05000000000001</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1775,7 +1778,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1783,17 +1786,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1801,7 +1804,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1809,13 +1812,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>86.5</v>
+        <v>45</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1835,13 +1838,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>67</v>
+        <v>86.5</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1861,17 +1864,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1887,17 +1890,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>282</v>
+        <v>62</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1913,17 +1916,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>30.5</v>
+        <v>282</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1939,17 +1942,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>60</v>
+        <v>30.5</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1965,13 +1968,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -1991,13 +1994,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2023,11 +2026,11 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>26.100000000000001</v>
+        <v>24</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2043,17 +2046,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>51</v>
+        <v>26.100000000000001</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2061,7 +2064,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2069,17 +2072,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>94.5</v>
+        <v>51</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2095,17 +2098,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2113,7 +2116,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2121,13 +2124,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2139,7 +2142,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2147,17 +2150,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2165,7 +2168,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2173,17 +2176,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2199,17 +2202,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2225,13 +2228,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2239,37 +2242,63 @@
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
-      <c r="K58" s="10">
-        <v>3331.4899999999998</v>
-      </c>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-    </row>
-    <row r="59" ht="17.25" customHeight="1">
-      <c t="s" r="A59" s="11">
+      <c r="A58" s="6">
+        <v>55</v>
+      </c>
+      <c t="s" r="B58" s="7">
         <v>82</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c t="s" r="F59" s="12">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c t="s" r="H58" s="8">
+        <v>75</v>
+      </c>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="9">
+        <v>24</v>
+      </c>
+      <c r="M58" s="9"/>
+      <c t="s" r="N58" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="K59" s="10">
+        <v>3365.4899999999998</v>
+      </c>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="11">
         <v>83</v>
       </c>
-      <c r="G59" s="12"/>
-      <c r="H59" s="13"/>
-      <c t="s" r="I59" s="14">
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c t="s" r="F60" s="12">
         <v>84</v>
       </c>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="13"/>
+      <c t="s" r="I60" s="14">
+        <v>85</v>
+      </c>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="173">
+  <mergeCells count="176">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2439,10 +2468,13 @@
     <mergeCell ref="B57:G57"/>
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="I59:N59"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:N60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
